--- a/Project/PATIENTS_DETAILS.xlsx
+++ b/Project/PATIENTS_DETAILS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="11280" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="11280" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="360">
   <si>
     <t>Patient_Id</t>
   </si>
@@ -1083,6 +1083,21 @@
   </si>
   <si>
     <t xml:space="preserve">link to open after login </t>
+  </si>
+  <si>
+    <t>done but check which field to catch from db</t>
+  </si>
+  <si>
+    <t>national id db value</t>
+  </si>
+  <si>
+    <t>xray db id value</t>
+  </si>
+  <si>
+    <t>NAD</t>
+  </si>
+  <si>
+    <t>Abnormal</t>
   </si>
 </sst>
 </file>
@@ -1503,9 +1518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C176"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3453,8 +3466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F176"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3504,7 +3517,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -4372,8 +4385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5249,10 +5262,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5260,7 +5273,7 @@
     <col min="1" max="1" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>347</v>
       </c>
@@ -5271,7 +5284,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>336</v>
       </c>
@@ -5282,7 +5295,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>337</v>
       </c>
@@ -5293,31 +5306,43 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>338</v>
       </c>
+      <c r="B4" t="s">
+        <v>345</v>
+      </c>
       <c r="C4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>339</v>
       </c>
+      <c r="B5" t="s">
+        <v>345</v>
+      </c>
       <c r="C5" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>340</v>
       </c>
+      <c r="B6" t="s">
+        <v>345</v>
+      </c>
       <c r="C6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>341</v>
       </c>
@@ -5325,38 +5350,59 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>346</v>
       </c>
+      <c r="B8" t="s">
+        <v>345</v>
+      </c>
       <c r="C8" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>348</v>
       </c>
       <c r="C9" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>352</v>
       </c>
       <c r="C10" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>357</v>
+      </c>
+      <c r="O11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>354</v>
+      </c>
+      <c r="O12" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
